--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AD461-70B3-7646-B706-0509EF298FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6152610A-133F-2542-B749-96F625115301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="-60" windowWidth="28800" windowHeight="18000" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>D1</t>
   </si>
@@ -137,26 +137,125 @@
     <t>Blank5</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +266,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +637,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,6 +655,12 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -560,7 +671,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -572,7 +689,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -584,7 +707,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -596,7 +725,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -608,7 +743,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -620,7 +761,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -632,7 +779,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -644,7 +797,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -656,7 +815,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -668,7 +833,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -680,7 +851,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -692,7 +869,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -704,7 +887,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -716,7 +905,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -728,7 +923,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -740,7 +941,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -752,7 +959,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -764,7 +977,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -776,7 +995,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -788,7 +1013,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -800,7 +1031,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -812,7 +1049,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -824,7 +1067,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -836,7 +1085,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -848,7 +1103,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -860,7 +1121,10 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -872,7 +1136,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -884,7 +1151,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -896,7 +1166,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -908,7 +1181,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -1018,6 +1294,7 @@
       <c r="B66" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6152610A-133F-2542-B749-96F625115301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950FA3B-590D-2D47-AD2C-E22FFCE97E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="18680" yWindow="760" windowWidth="11560" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
   <si>
     <t>D1</t>
   </si>
@@ -637,7 +637,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,102 +1189,507 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250513</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250513</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250513</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250513</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250513</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250513</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250513</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250513</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20250513</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250513</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20250513</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250513</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20250513</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250513</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20250513</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250513</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20250513</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250513</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20250513</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20250513</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20250513</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20250513</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20250513</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20250513</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20250513</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20250513</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20250513</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20250513</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20250513</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20250513</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">

--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950FA3B-590D-2D47-AD2C-E22FFCE97E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EFB742-4C26-9F43-B126-F1C3275B7949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18680" yWindow="760" windowWidth="11560" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="71">
   <si>
     <t>D1</t>
   </si>
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1684,19 +1684,499 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
+      <c r="A62">
+        <v>20250520</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
+      <c r="A63">
+        <v>20250520</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
+      <c r="A64">
+        <v>20250520</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20250520</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20250520</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20250520</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20250520</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20250520</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20250520</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20250520</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20250520</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20250520</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20250520</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20250520</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20250520</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20250520</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20250520</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20250520</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20250520</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20250520</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20250520</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20250520</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20250520</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20250520</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20250520</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20250520</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20250520</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20250520</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20250520</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20250520</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EFB742-4C26-9F43-B126-F1C3275B7949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC497F-39DD-8547-BA41-4D13A836A384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="760" windowWidth="11560" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="9240" yWindow="760" windowWidth="21000" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="72">
   <si>
     <t>D1</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>remove, dead shell</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,6 +2181,504 @@
         <v>64</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20250527</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20250527</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20250527</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20250527</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20250527</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20250527</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20250527</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20250527</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20250527</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20250527</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20250527</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20250527</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20250527</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20250527</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20250527</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20250527</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20250527</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20250527</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20250527</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20250527</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20250527</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20250527</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20250527</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20250527</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20250527</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20250527</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20250527</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20250527</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20250527</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20250527</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC497F-39DD-8547-BA41-4D13A836A384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A9EEF-5A2B-1B4A-806A-48F7A30ECCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9240" yWindow="760" windowWidth="21000" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="73">
   <si>
     <t>D1</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>remove, dead shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove, spilled during trial </t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2541,7 +2544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20250527</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>20250527</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>20250527</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>20250527</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20250527</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>20250527</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>20250527</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>20250527</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20250527</v>
       </c>
@@ -2676,6 +2679,507 @@
         <v>62</v>
       </c>
       <c r="D121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20250603</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20250603</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20250603</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20250603</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20250603</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20250603</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>67</v>
+      </c>
+      <c r="F127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20250603</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20250603</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20250603</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20250603</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20250603</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20250603</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20250603</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20250603</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20250603</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20250603</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20250603</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20250603</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20250603</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20250603</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20250603</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20250603</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20250603</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20250603</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20250603</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20250603</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20250603</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20250603</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20250603</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20250603</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
         <v>64</v>
       </c>
     </row>

--- a/data/usda-families/metadata/sample_metadata.xlsx
+++ b/data/usda-families/metadata/sample_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A9EEF-5A2B-1B4A-806A-48F7A30ECCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DE1150-FA03-E441-9A79-D9BCA66B134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9240" yWindow="760" windowWidth="21000" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="73">
   <si>
     <t>D1</t>
   </si>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3183,6 +3183,501 @@
         <v>64</v>
       </c>
     </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20250610</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20250610</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20250610</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20250610</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20250610</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D156" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20250610</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20250610</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20250610</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20250610</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20250610</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20250610</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20250610</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20250610</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20250610</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20250610</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20250610</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20250610</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20250610</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20250610</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20250610</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20250610</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20250610</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20250610</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D174" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20250610</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20250610</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20250610</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>20250610</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>20250610</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>20250610</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>20250610</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
